--- a/Sprint 1/Package 4/Documentation/Analyse/P04-JE.xlsx
+++ b/Sprint 1/Package 4/Documentation/Analyse/P04-JE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Dropbox\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Utilisateur\Dropbox\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18396" windowHeight="6612" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tblTypeStatus" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>En cours</t>
   </si>
@@ -145,6 +145,81 @@
   </si>
   <si>
     <t>Focus group</t>
+  </si>
+  <si>
+    <t>Regrouper divers genres de joueur différent, poser des question préalablement déterminer, un script. Enregistré la discution et noter les point qui ressort</t>
+  </si>
+  <si>
+    <t>AnLog</t>
+  </si>
+  <si>
+    <t>Analyse des logs</t>
+  </si>
+  <si>
+    <t>Placer des log à divers moment pour relevé les évènements déclancher par un joueur durant qu'il joue au jeu et analyser les résultat</t>
+  </si>
+  <si>
+    <t>PlPap</t>
+  </si>
+  <si>
+    <t>Playtests sur prototypes papier</t>
+  </si>
+  <si>
+    <t>Construire un prototype papier du jeu et le tester avec plusieur joueur et un modérateur qui s'assure que les joueurs sont pas perdu. Analyser les retours des joueur et leurs action en jeu</t>
+  </si>
+  <si>
+    <t>PlSce</t>
+  </si>
+  <si>
+    <t>Playtests scénarisés sur prototypes interactif</t>
+  </si>
+  <si>
+    <t>PlOuv</t>
+  </si>
+  <si>
+    <t>Playtests ouverts sur prototypes interactifs</t>
+  </si>
+  <si>
+    <t>Tester des séquences particulière d'un jeu, observé la difficulter, la prise en main, le gameplay et l'amusement du testeur</t>
+  </si>
+  <si>
+    <t>Tester le jeu, laisser le joueur jouer sans contrainte et analyser ces réactions.</t>
+  </si>
+  <si>
+    <t>QuEst</t>
+  </si>
+  <si>
+    <t>Questionnaires</t>
+  </si>
+  <si>
+    <t>Créer un questionnaire avec des questions précise, proposer au joueur de le compléter et analyser les retours. Ce test peu être complémentaire à un autre</t>
+  </si>
+  <si>
+    <t>PrVer</t>
+  </si>
+  <si>
+    <t>Protocoles verbaux</t>
+  </si>
+  <si>
+    <t>Demander à un testeur de penser à haute voix lors de la réalisation des tâches que l''expérimentateur lui demande d''effectuer</t>
+  </si>
+  <si>
+    <t>OcUlo</t>
+  </si>
+  <si>
+    <t>Oculométrie</t>
+  </si>
+  <si>
+    <t>Suivre les mouvements oculaires d'un joueur en jeu</t>
+  </si>
+  <si>
+    <t>DiDoc</t>
+  </si>
+  <si>
+    <t>Digital script doctor</t>
+  </si>
+  <si>
+    <t>Passer en revue les différents actes et séquences constitutifs de la progression du joueur dans la trame narrative</t>
   </si>
 </sst>
 </file>
@@ -499,15 +574,15 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="82.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -534,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,22 +635,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1"/>
-    <col min="3" max="3" width="94.21875" customWidth="1"/>
-    <col min="4" max="4" width="112.88671875" customWidth="1"/>
-    <col min="5" max="5" width="49.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" customWidth="1"/>
+    <col min="4" max="4" width="162.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -606,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -620,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -634,7 +709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -648,7 +723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -662,7 +737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -679,12 +754,103 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 4/Documentation/Analyse/P04-JE.xlsx
+++ b/Sprint 1/Package 4/Documentation/Analyse/P04-JE.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Utilisateur\Dropbox\Projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18396" windowHeight="6612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tblTypeStatus" sheetId="1" r:id="rId1"/>
     <sheet name="tblTypeTest" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -165,9 +160,6 @@
     <t>Playtests sur prototypes papier</t>
   </si>
   <si>
-    <t>Construire un prototype papier du jeu et le tester avec plusieur joueur et un modérateur qui s'assure que les joueurs sont pas perdu. Analyser les retours des joueur et leurs action en jeu</t>
-  </si>
-  <si>
     <t>PlSce</t>
   </si>
   <si>
@@ -220,6 +212,9 @@
   </si>
   <si>
     <t>Passer en revue les différents actes et séquences constitutifs de la progression du joueur dans la trame narrative</t>
+  </si>
+  <si>
+    <t>Construire un prototype papier du jeu et le tester avec plusieurs joueurs et un modérateur qui s'assure que les joueurs ne sont pas perdus. Analyser les retours des joueurs et leurs actions en jeu.</t>
   </si>
 </sst>
 </file>
@@ -560,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,11 +569,11 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -609,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -638,16 +633,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="94.28515625" customWidth="1"/>
-    <col min="4" max="4" width="162.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="94.33203125" customWidth="1"/>
+    <col min="4" max="4" width="168.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -667,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -681,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -695,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -709,7 +704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -723,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -737,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -754,7 +749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -765,7 +760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -776,7 +771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -784,73 +779,73 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
